--- a/Data/Finland_emissions_2023_totals_main.xlsx
+++ b/Data/Finland_emissions_2023_totals_main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1990</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1990</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>1990</v>
@@ -514,314 +514,314 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>904</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1990</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5208</v>
+        <v>-23175</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>960</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52097</v>
+        <v>5208</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1168</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1991</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4842</v>
+        <v>52097</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1304</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>1991</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6885</v>
+        <v>4842</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1848</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>1991</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5269</v>
+        <v>6885</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1904</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51492</v>
+        <v>-35580</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2112</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4567</v>
+        <v>5269</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2248</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>1992</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6379</v>
+        <v>51492</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2792</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>1992</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5283</v>
+        <v>4567</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2848</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53430</v>
+        <v>6379</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3056</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4590</v>
+        <v>-29547</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3192</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6639</v>
+        <v>5283</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3736</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>1993</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5277</v>
+        <v>53430</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3792</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58762</v>
+        <v>4590</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4000</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4857</v>
+        <v>6639</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4136</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6681</v>
+        <v>-30184</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4680</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5206</v>
+        <v>5277</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4736</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55257</v>
+        <v>58762</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4944</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4908</v>
+        <v>4857</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5080</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6469</v>
+        <v>6681</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -894,314 +894,314 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5624</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5125</v>
+        <v>-23370</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5680</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61008</v>
+        <v>5206</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5888</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5152</v>
+        <v>55257</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6024</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6598</v>
+        <v>4908</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6568</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5006</v>
+        <v>6469</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6624</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59425</v>
+        <v>-22000</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6832</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5455</v>
+        <v>5125</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6968</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6679</v>
+        <v>61008</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>7512</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4865</v>
+        <v>5152</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7568</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>56111</v>
+        <v>6598</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7776</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5489</v>
+        <v>-28307</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>7912</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6490</v>
+        <v>5006</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>8456</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4643</v>
+        <v>59425</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>8512</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>55489</v>
+        <v>5455</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>8720</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5651</v>
+        <v>6679</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8856</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6384</v>
+        <v>-23659</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>9400</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4528</v>
+        <v>4865</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>9456</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>53684</v>
+        <v>56111</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9664</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5823</v>
+        <v>5489</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>9800</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6356</v>
+        <v>6490</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -1274,314 +1274,314 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>10344</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4251</v>
+        <v>-21594</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>10400</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>59128</v>
+        <v>4643</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>10608</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5899</v>
+        <v>55489</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>10744</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6331</v>
+        <v>5651</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>11288</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4072</v>
+        <v>6384</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>11344</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>61724</v>
+        <v>-21766</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>11552</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5933</v>
+        <v>4528</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6393</v>
+        <v>53684</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>12232</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3788</v>
+        <v>5823</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>12288</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>69337</v>
+        <v>6356</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>12496</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6264</v>
+        <v>-21258</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>12632</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6260</v>
+        <v>4251</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>13176</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3563</v>
+        <v>59128</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13232</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>65450</v>
+        <v>5899</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>13440</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6607</v>
+        <v>6331</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>13576</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6217</v>
+        <v>-21876</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14120</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3389</v>
+        <v>4072</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>14176</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>53721</v>
+        <v>61724</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>14384</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6569</v>
+        <v>5933</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>14520</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6217</v>
+        <v>6393</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -1654,314 +1654,314 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>15064</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3119</v>
+        <v>-22949</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>15120</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>64786</v>
+        <v>3788</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>15328</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6809</v>
+        <v>69337</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>15464</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6200</v>
+        <v>6264</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>16008</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3202</v>
+        <v>6260</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>16064</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>62814</v>
+        <v>-23366</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>16272</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7259</v>
+        <v>3563</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>16408</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6165</v>
+        <v>65450</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>16952</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3086</v>
+        <v>6607</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>17008</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>54475</v>
+        <v>6217</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>17216</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7485</v>
+        <v>-24788</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>17352</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6270</v>
+        <v>3389</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>17896</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2950</v>
+        <v>53721</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>17952</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>52604</v>
+        <v>6569</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>18160</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5925</v>
+        <v>6217</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18296</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6193</v>
+        <v>-24850</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>18840</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2837</v>
+        <v>3119</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>18896</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>60200</v>
+        <v>64786</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>19104</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6108</v>
+        <v>6809</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>19240</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6255</v>
+        <v>6200</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
@@ -2034,314 +2034,314 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>19784</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2837</v>
+        <v>-28748</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>19840</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>52755</v>
+        <v>3202</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>20048</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6055</v>
+        <v>62814</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>20184</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6106</v>
+        <v>7259</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>20728</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2738</v>
+        <v>6165</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>20784</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>47470</v>
+        <v>-19101</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>20992</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5879</v>
+        <v>3086</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>21128</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6091</v>
+        <v>54475</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>21672</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2674</v>
+        <v>7485</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>21728</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>48081</v>
+        <v>6270</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>21936</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5736</v>
+        <v>-21682</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>22072</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6233</v>
+        <v>2950</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>22616</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2536</v>
+        <v>52604</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>22672</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>44234</v>
+        <v>5925</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>22880</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5494</v>
+        <v>6193</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>23016</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6291</v>
+        <v>-33906</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>23560</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2385</v>
+        <v>2837</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>23616</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>40678</v>
+        <v>60200</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>23824</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5635</v>
+        <v>6108</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>23960</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6282</v>
+        <v>6255</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2414,314 +2414,314 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>24504</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2310</v>
+        <v>-22378</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>24560</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>43395</v>
+        <v>2837</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>24768</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5845</v>
+        <v>52755</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>24904</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6355</v>
+        <v>6055</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>25448</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2159</v>
+        <v>6106</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>25504</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>40970</v>
+        <v>-21620</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>25712</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5670</v>
+        <v>2738</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>25848</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6257</v>
+        <v>47470</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>26392</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2050</v>
+        <v>5879</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>26448</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>41983</v>
+        <v>6091</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>26656</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5670</v>
+        <v>-23342</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>26792</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6219</v>
+        <v>2674</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>27336</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2007</v>
+        <v>48081</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>27392</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>38956</v>
+        <v>5736</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>27600</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5340</v>
+        <v>6233</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>27736</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6318</v>
+        <v>-16557</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>28280</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1977</v>
+        <v>2536</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>28336</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>34359</v>
+        <v>44234</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>28544</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5038</v>
+        <v>5494</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>28680</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6276</v>
+        <v>6291</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
@@ -2794,172 +2794,894 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>29224</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1914</v>
+        <v>-17541</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>29280</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>34192</v>
+        <v>2385</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>29488</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5340</v>
+        <v>40678</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>29624</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>2 Industrial processes and product use</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6196</v>
+        <v>5635</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>30168</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5 Waste management</t>
+          <t>3 Agriculture</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1818</v>
+        <v>6282</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>30224</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1 Energy</t>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>32868</v>
+        <v>-13131</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>30432</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2 Industrial processes and product use</t>
+          <t>5 Waste management</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4979</v>
+        <v>2310</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>30568</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3 Agriculture</t>
+          <t>1 Energy</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6075</v>
+        <v>43395</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>31112</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>5845</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>6355</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>-9493</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2159</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>40970</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6257</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>-7032</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>41983</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>6219</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2324</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>38956</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>5340</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>6318</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>-3233</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>34359</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5038</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>-5354</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>34192</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>5340</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6196</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3474</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>2022</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>32868</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>4979</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>6075</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>4443</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>5 Waste management</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D166" t="n">
         <v>1727</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1 Energy</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>28248</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2 Industrial processes and product use</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4703</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3 Agriculture</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>5994</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4 Land use, land-use change and forestry (LULUCF)</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-1346</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>5 Waste management</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1634</v>
+      </c>
+      <c r="E171" t="n">
         <v>5</v>
       </c>
     </row>
